--- a/Financials/Yearly/COHR_YR_FIN.xlsx
+++ b/Financials/Yearly/COHR_YR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9ED598-1011-495B-83B4-7679C9EE46A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COHR" sheetId="6" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,144 +689,156 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43372</v>
+      </c>
+      <c r="E7" s="2">
         <v>43008</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>42644</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42280</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>41909</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41545</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41181</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>40817</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1902600</v>
+      </c>
+      <c r="E8" s="3">
         <v>1723300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>857400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>802500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>794600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>810100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>769100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>802800</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1071900</v>
+      </c>
+      <c r="E9" s="3">
         <v>973000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>476000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>467100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>481200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>487900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>453100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>452000</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>830700</v>
+      </c>
+      <c r="E10" s="3">
         <v>750300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>381400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>335400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>313400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>322300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>316000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>350800</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -803,35 +850,39 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>132600</v>
+      </c>
+      <c r="E12" s="3">
         <v>119200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>81800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>81500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>79100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>82800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>78300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>81200</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -856,63 +907,72 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>800</v>
+      </c>
+      <c r="E14" s="3">
         <v>-2500</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>700</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-5900</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E15" s="3">
         <v>16000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>2800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>2700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>3400</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>5100</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>10400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>8100</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -921,62 +981,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1509600</v>
+      </c>
+      <c r="E17" s="3">
         <v>1397800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>729800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>701700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>717800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>725200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>680300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>684300</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>393000</v>
+      </c>
+      <c r="E18" s="3">
         <v>325500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>127600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>100700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>76900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>84900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>88800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>118500</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -988,143 +1055,159 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E20" s="3">
         <v>10900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-3400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>5500</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>500800</v>
+      </c>
+      <c r="E21" s="3">
         <v>440700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>158600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>132700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>115500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>119800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>120400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>152600</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>25800</v>
+      </c>
+      <c r="E22" s="3">
         <v>34400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1300</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
       <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>200</v>
-      </c>
-      <c r="I22" s="3">
-        <v>100</v>
       </c>
       <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K22" s="3">
+        <v>100</v>
+      </c>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>361600</v>
+      </c>
+      <c r="E23" s="3">
         <v>302100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>122900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>99600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>79200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>83500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>90600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>123800</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>87500</v>
+      </c>
+      <c r="E24" s="3">
         <v>93400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>35400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>23200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>20100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>17100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>27700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>30600</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1149,63 +1232,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>274100</v>
+      </c>
+      <c r="E26" s="3">
         <v>208600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>87500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>76400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>59100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>66400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>63000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>93200</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>274100</v>
+      </c>
+      <c r="E27" s="3">
         <v>208600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>87500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>76400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>59100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>66400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>63000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>93200</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1230,17 +1322,20 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>-26700</v>
+      </c>
+      <c r="E29" s="3">
         <v>-1500</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>10</v>
@@ -1257,9 +1352,12 @@
       <c r="J29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1284,9 +1382,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1311,63 +1412,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-10900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>3400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-5500</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>247400</v>
+      </c>
+      <c r="E33" s="3">
         <v>207100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>87500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>76400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>59100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>66400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>63000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>93200</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1392,68 +1502,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>247400</v>
+      </c>
+      <c r="E35" s="3">
         <v>207100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>87500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>76400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>59100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>66400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>63000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>93200</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43372</v>
+      </c>
+      <c r="E38" s="2">
         <v>43008</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>42644</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42280</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>41909</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41545</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41181</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>40817</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1465,8 +1584,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1478,170 +1598,189 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>310500</v>
+      </c>
+      <c r="E41" s="3">
         <v>443100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>354300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>130600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>91200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>110400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>67800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>167100</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>100</v>
+      </c>
+      <c r="E42" s="3">
         <v>32500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>45600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>194900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>227100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>139700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>157200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>53100</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>372100</v>
+      </c>
+      <c r="E43" s="3">
         <v>321000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>176300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>148800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>137300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>176900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>144300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>141000</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>486700</v>
+      </c>
+      <c r="E44" s="3">
         <v>414800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>212900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>156600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>170500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>168100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>160100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>152400</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>69000</v>
+      </c>
+      <c r="E45" s="3">
         <v>100300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>26500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>49800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>55000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>58100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>85100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>67000</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1238500</v>
+      </c>
+      <c r="E46" s="3">
         <v>1311700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>815600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>652700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>681100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>629200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>614500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>580600</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1666,63 +1805,72 @@
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>311800</v>
+      </c>
+      <c r="E48" s="3">
         <v>278900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>127400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>204900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>107400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>228700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>115100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>104500</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>585200</v>
+      </c>
+      <c r="E49" s="3">
         <v>607700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>115300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>124600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>141200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>156400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>87200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>93900</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1747,9 +1895,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1774,36 +1925,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>124400</v>
+      </c>
+      <c r="E52" s="3">
         <v>139600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>102700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>89200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>69700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>66500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>64000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>64200</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1828,36 +1985,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2260000</v>
+      </c>
+      <c r="E54" s="3">
         <v>2337800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1161100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>968900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>999400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>966500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>880800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>843300</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1869,8 +2032,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1882,35 +2046,39 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>70300</v>
+      </c>
+      <c r="E57" s="3">
         <v>75900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>45200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>33400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>32800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>36600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>29100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>39800</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -1918,11 +2086,11 @@
         <v>5100</v>
       </c>
       <c r="E58" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F58" s="3">
         <v>20000</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
@@ -1935,72 +2103,81 @@
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>297500</v>
+      </c>
+      <c r="E59" s="3">
         <v>338200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>136300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>89200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>84500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>109300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>124700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>122500</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>372800</v>
+      </c>
+      <c r="E60" s="3">
         <v>419100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>201500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>122600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>117300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>145800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>153800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>162400</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>420700</v>
+      </c>
+      <c r="E61" s="3">
         <v>589000</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -2016,36 +2193,42 @@
       <c r="J61" s="3">
         <v>0</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>152000</v>
+      </c>
+      <c r="E62" s="3">
         <v>166400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>48800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>49900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>62400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>62100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>55300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>62800</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2070,9 +2253,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2097,9 +2283,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2124,36 +2313,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>945500</v>
+      </c>
+      <c r="E66" s="3">
         <v>1174500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>250300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>172500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>179700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>208000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>209100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>225300</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2165,8 +2360,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2191,9 +2387,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2218,9 +2417,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2245,9 +2447,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2272,36 +2477,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1232700</v>
+      </c>
+      <c r="E72" s="3">
         <v>971700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>764600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>677100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>600700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>541600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>499300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>436300</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2326,9 +2537,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2353,9 +2567,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2380,36 +2597,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1314500</v>
+      </c>
+      <c r="E76" s="3">
         <v>1163300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>910800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>796400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>819600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>758500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>671700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>618000</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2434,68 +2657,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43372</v>
+      </c>
+      <c r="E80" s="2">
         <v>43008</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>42644</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42280</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>41909</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41545</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41181</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>40817</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>247400</v>
+      </c>
+      <c r="E81" s="3">
         <v>207100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>87500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>76400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>59100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>66400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>63000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>93200</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2507,35 +2739,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>113400</v>
+      </c>
+      <c r="E83" s="3">
         <v>104200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>34400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>33100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>36200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>36100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>29600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>28600</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2560,9 +2796,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2587,9 +2826,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2614,9 +2856,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2641,9 +2886,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2668,36 +2916,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>236100</v>
+      </c>
+      <c r="E89" s="3">
         <v>384100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>105300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>124500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>91400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>115500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>64800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>86700</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2709,35 +2963,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-90800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-63800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-49300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-22200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-23400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-22000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-36100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-37100</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2762,9 +3020,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2789,36 +3050,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-67700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-810300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>103400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>3200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-109800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-70700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-142900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-85700</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2830,8 +3097,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2848,17 +3116,20 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
         <v>-24000</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2883,9 +3154,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2910,9 +3184,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2937,88 +3214,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-299000</v>
+      </c>
+      <c r="E100" s="3">
         <v>506000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>17200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-73000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-11700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-15000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-64100</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E101" s="3">
         <v>22900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-2200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-15200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-3700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>9500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-6100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-15200</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-133000</v>
+      </c>
+      <c r="E102" s="3">
         <v>102700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>223700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>39400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-19200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>42700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-99300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-78300</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Financials/Yearly/COHR_YR_FIN.xlsx
+++ b/Financials/Yearly/COHR_YR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9ED598-1011-495B-83B4-7679C9EE46A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="COHR" sheetId="6" r:id="rId1"/>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,156 +654,168 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43736</v>
+      </c>
+      <c r="E7" s="2">
         <v>43372</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43008</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42644</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42280</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41909</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41545</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41181</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40817</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1430600</v>
+      </c>
+      <c r="E8" s="3">
         <v>1902600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1723300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>857400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>802500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>794600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>810100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>769100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>802800</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>924500</v>
+      </c>
+      <c r="E9" s="3">
         <v>1071900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>973000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>476000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>467100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>481200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>487900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>453100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>452000</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>506200</v>
+      </c>
+      <c r="E10" s="3">
         <v>830700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>750300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>381400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>335400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>313400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>322300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>316000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>350800</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,38 +828,42 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>117400</v>
+      </c>
+      <c r="E12" s="3">
         <v>132600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>119200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>81800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>81500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>79100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>82800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>78300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>81200</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -910,69 +891,78 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E14" s="3">
         <v>800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-2500</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>700</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-5900</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E15" s="3">
         <v>10700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>16000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>2800</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>2700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>3400</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>5100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>10400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>8100</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -982,68 +972,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1347500</v>
+      </c>
+      <c r="E17" s="3">
         <v>1509600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1397800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>729800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>701700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>717800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>725200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>680300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>684300</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>83100</v>
+      </c>
+      <c r="E18" s="3">
         <v>393000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>325500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>127600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>100700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>76900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>84900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>88800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>118500</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1056,158 +1053,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E20" s="3">
         <v>-5600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>10900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-3400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>5500</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>195600</v>
+      </c>
+      <c r="E21" s="3">
         <v>500800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>440700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>158600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>132700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>115500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>119800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>120400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>152600</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E22" s="3">
         <v>25800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>34400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1300</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
       <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>200</v>
-      </c>
-      <c r="J22" s="3">
-        <v>100</v>
       </c>
       <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L22" s="3">
+        <v>100</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>60000</v>
+      </c>
+      <c r="E23" s="3">
         <v>361600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>302100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>122900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>99600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>79200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>83500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>90600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>123800</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E24" s="3">
         <v>87500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>93400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>35400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>23200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>20100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>17100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>27700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>30600</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,69 +1248,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>53800</v>
+      </c>
+      <c r="E26" s="3">
         <v>274100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>208600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>87500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>76400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>59100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>66400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>63000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>93200</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>53800</v>
+      </c>
+      <c r="E27" s="3">
         <v>274100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>208600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>87500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>76400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>59100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>66400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>63000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>93200</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1325,20 +1347,23 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
         <v>-26700</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-1500</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>10</v>
@@ -1355,9 +1380,12 @@
       <c r="K29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1385,9 +1413,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1415,69 +1446,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E32" s="3">
         <v>5600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-10900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>3400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-5500</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>53800</v>
+      </c>
+      <c r="E33" s="3">
         <v>247400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>207100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>87500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>76400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>59100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>66400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>63000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>93200</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1505,74 +1545,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>53800</v>
+      </c>
+      <c r="E35" s="3">
         <v>247400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>207100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>87500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>76400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>59100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>66400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>63000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>93200</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43736</v>
+      </c>
+      <c r="E38" s="2">
         <v>43372</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43008</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42644</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42280</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41909</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41545</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41181</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40817</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1585,8 +1634,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1599,38 +1649,42 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>305800</v>
+      </c>
+      <c r="E41" s="3">
         <v>310500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>443100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>354300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>130600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>91200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>110400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>67800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>167100</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1638,149 +1692,164 @@
         <v>100</v>
       </c>
       <c r="E42" s="3">
+        <v>100</v>
+      </c>
+      <c r="F42" s="3">
         <v>32500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>45600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>194900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>227100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>139700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>157200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>53100</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>278800</v>
+      </c>
+      <c r="E43" s="3">
         <v>372100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>321000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>176300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>148800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>137300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>176900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>144300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>141000</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>442500</v>
+      </c>
+      <c r="E44" s="3">
         <v>486700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>414800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>212900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>156600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>170500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>168100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>160100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>152400</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>67600</v>
+      </c>
+      <c r="E45" s="3">
         <v>69000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>100300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>26500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>49800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>55000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>58100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>85100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>67000</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1094800</v>
+      </c>
+      <c r="E46" s="3">
         <v>1238500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1311700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>815600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>652700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>681100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>629200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>614500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>580600</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1808,69 +1877,78 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>323400</v>
+      </c>
+      <c r="E48" s="3">
         <v>311800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>278900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>127400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>204900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>107400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>228700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>115100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>104500</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>511900</v>
+      </c>
+      <c r="E49" s="3">
         <v>585200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>607700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>115300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>124600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>141200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>156400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>87200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>93900</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1898,9 +1976,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1928,39 +2009,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>153000</v>
+      </c>
+      <c r="E52" s="3">
         <v>124400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>139600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>102700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>89200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>69700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>66500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>64000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>64200</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1988,39 +2075,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2083200</v>
+      </c>
+      <c r="E54" s="3">
         <v>2260000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2337800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1161100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>968900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>999400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>966500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>880800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>843300</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2033,8 +2126,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2047,53 +2141,57 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>51500</v>
+      </c>
+      <c r="E57" s="3">
         <v>70300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>75900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>45200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>33400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>32800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>36600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>29100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>39800</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5100</v>
+        <v>14900</v>
       </c>
       <c r="E58" s="3">
         <v>5100</v>
       </c>
       <c r="F58" s="3">
+        <v>5100</v>
+      </c>
+      <c r="G58" s="3">
         <v>20000</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
@@ -2106,81 +2204,90 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>173900</v>
+      </c>
+      <c r="E59" s="3">
         <v>297500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>338200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>136300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>89200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>84500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>109300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>124700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>122500</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>240300</v>
+      </c>
+      <c r="E60" s="3">
         <v>372800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>419100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>201500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>122600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>117300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>145800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>153800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>162400</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>392200</v>
+      </c>
+      <c r="E61" s="3">
         <v>420700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>589000</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2196,39 +2303,45 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>165900</v>
+      </c>
+      <c r="E62" s="3">
         <v>152000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>166400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>48800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>49900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>62400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>62100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>55300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>62800</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2256,9 +2369,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2286,9 +2402,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2316,39 +2435,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>798400</v>
+      </c>
+      <c r="E66" s="3">
         <v>945500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1174500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>250300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>172500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>179700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>208000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>209100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>225300</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2361,8 +2486,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2390,9 +2516,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2420,9 +2549,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2450,9 +2582,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2480,39 +2615,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1286500</v>
+      </c>
+      <c r="E72" s="3">
         <v>1232700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>971700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>764600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>677100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>600700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>541600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>499300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>436300</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2540,9 +2681,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2570,9 +2714,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2600,39 +2747,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1284700</v>
+      </c>
+      <c r="E76" s="3">
         <v>1314500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1163300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>910800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>796400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>819600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>758500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>671700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>618000</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2660,74 +2813,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43736</v>
+      </c>
+      <c r="E80" s="2">
         <v>43372</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43008</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42644</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42280</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41909</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41545</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41181</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40817</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>53800</v>
+      </c>
+      <c r="E81" s="3">
         <v>247400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>207100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>87500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>76400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>59100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>66400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>63000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>93200</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2740,38 +2902,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>116400</v>
+      </c>
+      <c r="E83" s="3">
         <v>113400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>104200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>34400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>33100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>36200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>36100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>29600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>28600</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2799,9 +2965,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2829,9 +2998,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2859,9 +3031,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2889,9 +3064,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2919,39 +3097,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>181400</v>
+      </c>
+      <c r="E89" s="3">
         <v>236100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>384100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>105300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>124500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>91400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>115500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>64800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>86700</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2964,38 +3148,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-83300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-90800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-63800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-49300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-22200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-23400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-22000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-36100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-37100</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3023,9 +3211,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3053,39 +3244,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-67700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-810300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>103400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>3200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-109800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-70700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-142900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-85700</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3098,8 +3295,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3119,17 +3317,20 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
         <v>-24000</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3157,9 +3358,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3187,9 +3391,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3217,97 +3424,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-80500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-299000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>506000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>17200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-73000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-11700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-15000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-64100</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-2400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>22900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-2200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-15200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-3700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>9500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-6100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-15200</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-133000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>102700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>223700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>39400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-19200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>42700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-99300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-78300</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
